--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-18T14:28:35.101325+00:00</t>
+    <t>2025-07-18T14:43:49.375512+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-18T14:43:49.375512+00:00</t>
+    <t>2025-07-18T14:46:15.200442+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>
@@ -19094,7 +19094,7 @@
       <c r="E60" t="s">
         <v>381</v>
       </c>
-      <c r="K60" t="s">
+      <c r="F60" t="s">
         <v>264</v>
       </c>
     </row>
@@ -27192,7 +27192,7 @@
         <v>395</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1190</v>
+        <v>264</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>1190</v>
@@ -27207,7 +27207,7 @@
         <v>1190</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>264</v>
+        <v>1190</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>1409</v>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-18T22:19:16.819841+00:00</t>
+    <t>2025-07-20T08:59:34.947679+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-20T08:59:34.947679+00:00</t>
+    <t>2025-07-21T10:56:28.465063+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-21T10:56:28.465063+00:00</t>
+    <t>2025-07-21T14:05:18.020754+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-21T14:05:18.020754+00:00</t>
+    <t>2025-07-26T13:41:21.115958+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-26T13:41:21.115958+00:00</t>
+    <t>2025-07-26T13:41:44.206400+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>
@@ -2702,7 +2702,7 @@
     <t>M1058</t>
   </si>
   <si>
-    <t>Checking for other confirmatory indicators of the device that was inferred from syncronisation artefacts</t>
+    <t>Checking for other confirmatory indicators of the inferred device's existence.</t>
   </si>
   <si>
     <t>['W1010', 'W1011']</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7961" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7959" uniqueCount="1609">
   <si>
     <t>Find potential evidence sources</t>
   </si>
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-26T13:41:44.206400+00:00</t>
+    <t>2025-07-26T13:42:21.684042+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>
@@ -284,7 +284,7 @@
     <t>T1011</t>
   </si>
   <si>
-    <t>Evidence bags</t>
+    <t>Store seized devices in evidence bags</t>
   </si>
   <si>
     <t>T1012</t>
@@ -3369,7 +3369,7 @@
 T1010</t>
   </si>
   <si>
-    <t>Evidence bags
+    <t>Store seized devices in evidence bags
 T1011</t>
   </si>
   <si>
@@ -4082,9 +4082,6 @@
   </si>
   <si>
     <t>['T1010', 'M1002']</t>
-  </si>
-  <si>
-    <t>['T1011']</t>
   </si>
   <si>
     <t>A hardware write blocking device [should] prevent any change to data in the user area of a hard drive while allowing access to all data on a hard drive. (Lyle 2006)</t>
@@ -5975,7 +5972,7 @@
     <hyperlink ref="P2" location="T1089!A1" display="Source code review&#10;T1089"/>
     <hyperlink ref="Q2" location="T1091!A1" display="Bookmarking&#10;T1091"/>
     <hyperlink ref="A3" location="T1006!A1" display="Digital sniffer dogs&#10;T1006"/>
-    <hyperlink ref="C3" location="T1011!A1" display="Evidence bags&#10;T1011"/>
+    <hyperlink ref="C3" location="T1011!A1" display="Store seized devices in evidence bags&#10;T1011"/>
     <hyperlink ref="D3" location="T1003!A1" display="Memory imaging&#10;T1003"/>
     <hyperlink ref="E3" location="T1032!A1" display="Side channel&#10;T1032"/>
     <hyperlink ref="F3" location="T1043!A1" display="Forensic image format decoding&#10;T1043"/>
@@ -6514,7 +6511,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6522,7 +6519,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6612,7 +6609,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
@@ -6663,7 +6660,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6671,7 +6668,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6761,7 +6758,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
   </sheetData>
@@ -6812,7 +6809,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6820,7 +6817,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6910,7 +6907,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
   </sheetData>
@@ -6961,7 +6958,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6969,7 +6966,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7101,7 +7098,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7199,7 +7196,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -7250,7 +7247,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7258,7 +7255,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7274,7 +7271,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7345,18 +7342,18 @@
         <v>1199</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>1564</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="6" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
   </sheetData>
@@ -7408,7 +7405,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7548,7 +7545,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7556,7 +7553,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7828,7 +7825,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8182,7 +8179,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8322,7 +8319,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8462,7 +8459,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8602,7 +8599,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8766,7 +8763,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8866,7 +8863,7 @@
         <v>1199</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>645</v>
@@ -8928,7 +8925,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8944,7 +8941,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8960,7 +8957,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9097,7 +9094,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9258,7 +9255,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9271,7 +9268,7 @@
         <v>1029</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -9279,10 +9276,10 @@
         <v>1199</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>1577</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>1578</v>
       </c>
     </row>
   </sheetData>
@@ -9342,7 +9339,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9382,7 +9379,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9445,7 +9442,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9474,7 +9471,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9503,7 +9500,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9532,7 +9529,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9545,7 +9542,7 @@
         <v>1029</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -9609,7 +9606,7 @@
         <v>1199</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>658</v>
@@ -9617,7 +9614,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>658</v>
@@ -9625,7 +9622,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>658</v>
@@ -9633,10 +9630,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>1587</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>1588</v>
       </c>
     </row>
   </sheetData>
@@ -9699,7 +9696,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9707,7 +9704,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9715,7 +9712,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9815,10 +9812,10 @@
         <v>1199</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9826,7 +9823,7 @@
         <v>1243</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
   </sheetData>
@@ -9878,7 +9875,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9886,7 +9883,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9926,7 +9923,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9973,26 +9970,26 @@
         <v>1199</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>1596</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="6" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
   </sheetData>
@@ -10223,7 +10220,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10231,7 +10228,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10271,7 +10268,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10334,7 +10331,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10363,7 +10360,7 @@
         <v>264</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10445,7 +10442,7 @@
         <v>1199</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>671</v>
@@ -10499,7 +10496,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10507,7 +10504,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10639,7 +10636,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10647,7 +10644,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10679,7 +10676,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10687,7 +10684,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10808,7 +10805,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10829,7 +10826,7 @@
         <v>1199</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>679</v>
@@ -11859,21 +11856,12 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>1277</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B17:H17"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
   </hyperlinks>
@@ -11926,7 +11914,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11942,7 +11930,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12029,7 +12017,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12140,10 +12128,10 @@
         <v>1199</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>1281</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>1282</v>
       </c>
     </row>
   </sheetData>
@@ -12202,7 +12190,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12289,10 +12277,10 @@
         <v>1199</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>1284</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>1285</v>
       </c>
     </row>
   </sheetData>
@@ -12498,7 +12486,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
   </sheetData>
@@ -12557,7 +12545,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12597,7 +12585,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -12660,7 +12648,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12689,7 +12677,7 @@
         <v>262</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12747,7 +12735,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -12846,7 +12834,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12862,7 +12850,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12949,7 +12937,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12978,7 +12966,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13007,7 +12995,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13044,7 +13032,7 @@
         <v>1199</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>339</v>
@@ -13052,18 +13040,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -13214,7 +13202,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -13363,7 +13351,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -13422,7 +13410,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13446,7 +13434,7 @@
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13462,7 +13450,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13525,7 +13513,7 @@
         <v>262</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13612,7 +13600,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13641,7 +13629,7 @@
         <v>1189</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13756,7 +13744,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13772,7 +13760,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13788,7 +13776,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13859,7 +13847,7 @@
         <v>264</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13917,7 +13905,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -14004,7 +13992,7 @@
         <v>1189</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -14017,7 +14005,7 @@
         <v>996</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -14033,7 +14021,7 @@
         <v>1002</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -14041,7 +14029,7 @@
         <v>1005</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -14049,7 +14037,7 @@
         <v>1007</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -14057,7 +14045,7 @@
         <v>1199</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>616</v>
@@ -14065,7 +14053,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>616</v>
@@ -14073,7 +14061,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>616</v>
@@ -14141,7 +14129,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14228,10 +14216,10 @@
         <v>1199</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -14380,7 +14368,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -14529,7 +14517,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -16239,7 +16227,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -16247,7 +16235,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -16255,7 +16243,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -16279,7 +16267,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -16342,7 +16330,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -16425,7 +16413,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -16457,7 +16445,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -16684,7 +16672,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -16833,7 +16821,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
   </sheetData>
@@ -16982,7 +16970,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -17131,7 +17119,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
   </sheetData>
@@ -17182,7 +17170,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -17190,7 +17178,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -17230,7 +17218,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -17293,7 +17281,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -17322,7 +17310,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -17351,7 +17339,7 @@
         <v>1199</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>363</v>
@@ -17359,7 +17347,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>363</v>
@@ -17367,7 +17355,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>363</v>
@@ -17423,7 +17411,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -17521,7 +17509,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -17572,7 +17560,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -17670,7 +17658,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -17721,7 +17709,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -17729,7 +17717,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -17737,7 +17725,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -17745,7 +17733,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -17761,7 +17749,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -17832,7 +17820,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -17861,7 +17849,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -17890,7 +17878,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -17919,7 +17907,7 @@
         <v>963</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -17935,7 +17923,7 @@
         <v>1199</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>572</v>
@@ -21567,7 +21555,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -21575,7 +21563,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -21591,7 +21579,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -21607,7 +21595,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -21678,7 +21666,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -21707,7 +21695,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -21736,7 +21724,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -21805,7 +21793,7 @@
         <v>1199</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>565</v>
@@ -21813,10 +21801,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>1359</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -21868,7 +21856,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -21966,7 +21954,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -22017,7 +22005,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22115,7 +22103,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -22166,7 +22154,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22264,7 +22252,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
   </sheetData>
@@ -22315,7 +22303,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22323,7 +22311,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -22410,18 +22398,18 @@
         <v>1199</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>1365</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="6" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -22473,7 +22461,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22481,7 +22469,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -22521,7 +22509,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -22626,26 +22614,26 @@
         <v>1199</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>1370</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>1374</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>1375</v>
       </c>
     </row>
   </sheetData>
@@ -22698,7 +22686,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22796,7 +22784,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
   </sheetData>
@@ -22847,7 +22835,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22855,7 +22843,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -22958,7 +22946,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -22987,7 +22975,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -23016,7 +23004,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -23045,7 +23033,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -23074,7 +23062,7 @@
         <v>1189</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -23103,7 +23091,7 @@
         <v>1189</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -23180,7 +23168,7 @@
         <v>1199</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>357</v>
@@ -23188,7 +23176,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>357</v>
@@ -23196,7 +23184,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>357</v>
@@ -23204,10 +23192,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>1386</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -23261,7 +23249,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -23269,7 +23257,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -23451,10 +23439,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
@@ -23506,7 +23494,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -23617,7 +23605,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -23646,7 +23634,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -23675,7 +23663,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -23704,7 +23692,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -23733,7 +23721,7 @@
         <v>264</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -23762,7 +23750,7 @@
         <v>264</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -26212,7 +26200,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -26220,7 +26208,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -26252,7 +26240,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -26323,7 +26311,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -26405,7 +26393,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -26503,7 +26491,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
   </sheetData>
@@ -26554,7 +26542,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -26681,15 +26669,15 @@
         <v>1200</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26729,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -26839,7 +26827,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
   </sheetData>
@@ -26890,7 +26878,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -26898,7 +26886,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -27001,7 +26989,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -27030,7 +27018,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -27059,7 +27047,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -27088,7 +27076,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -27117,7 +27105,7 @@
         <v>1189</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -27146,7 +27134,7 @@
         <v>1189</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -27175,7 +27163,7 @@
         <v>264</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27204,7 +27192,7 @@
         <v>1189</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -27297,7 +27285,7 @@
         <v>1199</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>381</v>
@@ -27305,7 +27293,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>381</v>
@@ -27360,7 +27348,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -27487,15 +27475,15 @@
         <v>1200</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -27547,7 +27535,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -27645,7 +27633,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -27696,7 +27684,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -27704,7 +27692,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -27712,7 +27700,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -27744,7 +27732,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -27965,7 +27953,7 @@
         <v>1199</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>581</v>
@@ -27973,18 +27961,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>1418</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>1419</v>
       </c>
     </row>
   </sheetData>
@@ -28037,7 +28025,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -28135,7 +28123,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
   </sheetData>
@@ -28186,7 +28174,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -28218,7 +28206,7 @@
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -28297,7 +28285,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -28326,7 +28314,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -28355,7 +28343,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -28594,7 +28582,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -28692,7 +28680,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
   </sheetData>
@@ -28743,7 +28731,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -28841,7 +28829,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
   </sheetData>
@@ -28892,7 +28880,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -28990,7 +28978,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
   </sheetData>
@@ -29041,7 +29029,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29139,7 +29127,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>
@@ -29190,7 +29178,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29198,7 +29186,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -29206,7 +29194,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -29214,7 +29202,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -29230,7 +29218,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -29238,7 +29226,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -29301,7 +29289,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -29330,7 +29318,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -29359,7 +29347,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -29388,7 +29376,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -29417,7 +29405,7 @@
         <v>1189</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -29486,7 +29474,7 @@
         <v>1199</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>821</v>
@@ -29494,7 +29482,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>816</v>
@@ -29502,7 +29490,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>816</v>
@@ -29510,10 +29498,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>1440</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -29567,7 +29555,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29575,7 +29563,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -29615,7 +29603,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -29678,7 +29666,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -29707,7 +29695,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -29736,7 +29724,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -29765,7 +29753,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -29794,7 +29782,7 @@
         <v>1189</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -29823,7 +29811,7 @@
         <v>1189</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -29852,7 +29840,7 @@
         <v>1189</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -29881,7 +29869,7 @@
         <v>1189</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -29910,7 +29898,7 @@
         <v>1189</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -29939,7 +29927,7 @@
         <v>264</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -29968,7 +29956,7 @@
         <v>264</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -29997,7 +29985,7 @@
         <v>1189</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -30026,7 +30014,7 @@
         <v>1189</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -30055,7 +30043,7 @@
         <v>1189</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -30084,7 +30072,7 @@
         <v>1189</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -30113,7 +30101,7 @@
         <v>1189</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -30142,7 +30130,7 @@
         <v>1189</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -30187,7 +30175,7 @@
         <v>1199</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>416</v>
@@ -30241,7 +30229,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -30249,7 +30237,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -30257,7 +30245,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -30352,7 +30340,7 @@
         <v>264</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -30381,7 +30369,7 @@
         <v>264</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -30410,7 +30398,7 @@
         <v>264</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -30479,7 +30467,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>923</v>
@@ -30487,10 +30475,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
@@ -30543,7 +30531,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -30641,7 +30629,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
   </sheetData>
@@ -30692,7 +30680,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -30700,7 +30688,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -30716,7 +30704,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -30803,7 +30791,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -30832,7 +30820,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -30861,7 +30849,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -30906,7 +30894,7 @@
         <v>1199</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>546</v>
@@ -30914,42 +30902,42 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>1459</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>1461</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
   </sheetData>
@@ -31005,7 +30993,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31116,7 +31104,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -31145,7 +31133,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -31174,7 +31162,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -31203,7 +31191,7 @@
         <v>264</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -31232,7 +31220,7 @@
         <v>1189</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -31245,7 +31233,7 @@
         <v>860</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -31309,10 +31297,10 @@
         <v>1199</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>1470</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>1471</v>
       </c>
     </row>
   </sheetData>
@@ -31635,7 +31623,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31643,7 +31631,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -31733,7 +31721,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
   </sheetData>
@@ -31784,7 +31772,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31882,7 +31870,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -31933,7 +31921,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -32031,7 +32019,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
   </sheetData>
@@ -32082,7 +32070,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -32180,7 +32168,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
   </sheetData>
@@ -32231,7 +32219,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -32239,7 +32227,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -32255,7 +32243,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -32271,7 +32259,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -32342,7 +32330,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -32516,7 +32504,7 @@
         <v>1199</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>499</v>
@@ -32524,7 +32512,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>499</v>
@@ -32532,7 +32520,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>877</v>
@@ -32540,10 +32528,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>1486</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>1487</v>
       </c>
     </row>
   </sheetData>
@@ -32597,7 +32585,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -32737,7 +32725,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -32745,7 +32733,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -32753,7 +32741,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -32777,7 +32765,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -32785,7 +32773,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -32848,7 +32836,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -32877,7 +32865,7 @@
         <v>264</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -32964,7 +32952,7 @@
         <v>1189</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -32993,7 +32981,7 @@
         <v>1189</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -33030,7 +33018,7 @@
         <v>1016</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -33070,7 +33058,7 @@
         <v>1199</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>632</v>
@@ -33078,26 +33066,26 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>1499</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>1501</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>1503</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>1504</v>
       </c>
     </row>
   </sheetData>
@@ -33152,7 +33140,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -33160,7 +33148,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -33168,7 +33156,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -33176,7 +33164,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -33192,7 +33180,7 @@
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -33263,7 +33251,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -33292,7 +33280,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -33321,7 +33309,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -33350,7 +33338,7 @@
         <v>1189</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -33379,7 +33367,7 @@
         <v>1189</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -33408,7 +33396,7 @@
         <v>1189</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -33437,7 +33425,7 @@
         <v>1189</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -33466,7 +33454,7 @@
         <v>1189</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -33495,7 +33483,7 @@
         <v>264</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -33524,7 +33512,7 @@
         <v>1189</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -33553,7 +33541,7 @@
         <v>1189</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -33582,7 +33570,7 @@
         <v>1189</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -33611,7 +33599,7 @@
         <v>1189</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -33640,7 +33628,7 @@
         <v>1189</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -33669,7 +33657,7 @@
         <v>1189</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -33698,7 +33686,7 @@
         <v>1189</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -33727,7 +33715,7 @@
         <v>1189</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -33756,7 +33744,7 @@
         <v>264</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -33817,26 +33805,26 @@
         <v>1199</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>1513</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>1515</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>1517</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>1518</v>
       </c>
     </row>
   </sheetData>
@@ -33889,7 +33877,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34029,7 +34017,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34672,7 +34660,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34812,7 +34800,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34952,7 +34940,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35092,7 +35080,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35190,7 +35178,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
   </sheetData>
@@ -35241,7 +35229,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35273,7 +35261,7 @@
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -35339,7 +35327,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>
@@ -35390,7 +35378,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35422,7 +35410,7 @@
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -35488,7 +35476,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
   </sheetData>
@@ -35539,7 +35527,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35637,7 +35625,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
@@ -35688,7 +35676,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35828,7 +35816,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35926,7 +35914,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
   </sheetData>
@@ -35977,7 +35965,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -36075,7 +36063,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
   </sheetData>
@@ -36525,7 +36513,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -36533,7 +36521,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -36541,7 +36529,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -36549,7 +36537,7 @@
         <v>1191</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -36573,7 +36561,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -36620,34 +36608,34 @@
         <v>1199</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>1532</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
   </sheetData>
@@ -36701,7 +36689,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -36709,7 +36697,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -36841,7 +36829,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -36849,7 +36837,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -36857,7 +36845,7 @@
         <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -36936,10 +36924,10 @@
         <v>1199</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>1540</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>1541</v>
       </c>
     </row>
   </sheetData>
@@ -36990,7 +36978,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37088,7 +37076,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
   </sheetData>
@@ -37139,7 +37127,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37237,7 +37225,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
   </sheetData>
@@ -37288,7 +37276,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37296,7 +37284,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -37486,7 +37474,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37494,7 +37482,7 @@
         <v>1188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -37534,7 +37522,7 @@
         <v>1194</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -37597,7 +37585,7 @@
         <v>1189</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -37626,7 +37614,7 @@
         <v>1189</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -37655,7 +37643,7 @@
         <v>1189</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -37753,7 +37741,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37851,7 +37839,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -37902,7 +37890,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -38000,7 +37988,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
   </sheetData>
@@ -38051,7 +38039,7 @@
         <v>1187</v>
       </c>
       <c r="B3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -38149,7 +38137,7 @@
         <v>1200</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
   </sheetData>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-26T13:42:21.684042+00:00</t>
+    <t>2025-07-29T07:41:33.163849+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-29T07:41:33.163849+00:00</t>
+    <t>2025-07-29T07:48:21.605696+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-29T07:48:21.605696+00:00</t>
+    <t>2025-07-30T10:50:45.002561+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-30T10:50:45.002561+00:00</t>
+    <t>2025-07-30T21:13:01.327344+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-30T21:13:01.327344+00:00</t>
+    <t>2025-07-30T21:15:12.016365+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-30T21:15:12.016365+00:00</t>
+    <t>2025-07-31T12:02:03.900070+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -197,7 +197,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-07-31T12:02:03.900070+00:00</t>
+    <t>2025-08-03T15:49:54.723036+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -204,7 +204,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-08-03T16:06:17.406512+00:00</t>
+    <t>2025-08-07T15:16:16.141813+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -204,7 +204,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-08-07T15:16:16.141813+00:00</t>
+    <t>2025-08-07T16:02:36.094139+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8427" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8427" uniqueCount="1716">
   <si>
     <t>Find potential evidence sources</t>
   </si>
@@ -204,7 +204,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-08-07T16:02:36.094139+00:00</t>
+    <t>2025-08-14T17:13:07.460242+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>
@@ -4077,7 +4077,7 @@
     <t xml:space="preserve">Examples: </t>
   </si>
   <si>
-    <t>Potential weaknesses:</t>
+    <t>Potential Weaknesses:</t>
   </si>
   <si>
     <t>Weakness ID:</t>
@@ -4086,7 +4086,10 @@
     <t>Detail:</t>
   </si>
   <si>
-    <t>Mitigations:</t>
+    <t>Potential Mitigations</t>
+  </si>
+  <si>
+    <t>Potential Mitigations:</t>
   </si>
   <si>
     <t>References:</t>
@@ -6481,7 +6484,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6489,7 +6492,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6497,7 +6500,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6529,7 +6532,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6563,7 +6566,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6766,7 +6769,7 @@
         <v>1264</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6800,7 +6803,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6808,7 +6811,7 @@
         <v>748</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6816,15 +6819,15 @@
         <v>752</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>315</v>
@@ -6880,7 +6883,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6888,7 +6891,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6962,23 +6965,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
   </sheetData>
@@ -7029,7 +7032,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7037,7 +7040,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7111,23 +7114,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
   </sheetData>
@@ -7178,7 +7181,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7186,7 +7189,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7260,23 +7263,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
   </sheetData>
@@ -7327,7 +7330,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7335,7 +7338,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7409,17 +7412,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -7467,7 +7470,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7549,23 +7552,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
   </sheetData>
@@ -7616,7 +7619,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7624,7 +7627,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7640,7 +7643,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7698,31 +7701,31 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>1641</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>1640</v>
       </c>
     </row>
   </sheetData>
@@ -7774,7 +7777,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7856,17 +7859,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -7914,7 +7917,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7922,7 +7925,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7996,17 +7999,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8057,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8136,17 +8139,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -8194,7 +8197,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8276,17 +8279,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -8334,7 +8337,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8342,7 +8345,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8374,7 +8377,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8416,7 +8419,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8445,12 +8448,12 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8458,7 +8461,7 @@
         <v>917</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8466,15 +8469,15 @@
         <v>920</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>530</v>
@@ -8482,18 +8485,18 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
   </sheetData>
@@ -8548,7 +8551,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8630,17 +8633,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -8688,7 +8691,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8770,17 +8773,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -8828,7 +8831,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8910,17 +8913,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -8968,7 +8971,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9050,17 +9053,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -9108,7 +9111,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9132,7 +9135,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9190,7 +9193,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9224,15 +9227,15 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>663</v>
@@ -9286,7 +9289,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9294,7 +9297,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9310,7 +9313,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9326,7 +9329,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9368,7 +9371,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9402,12 +9405,12 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -9455,7 +9458,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9463,7 +9466,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9537,7 +9540,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9624,12 +9627,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9637,18 +9640,18 @@
         <v>1066</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
   </sheetData>
@@ -9700,7 +9703,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9708,7 +9711,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9748,7 +9751,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9782,7 +9785,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9811,7 +9814,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9840,7 +9843,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9869,7 +9872,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9898,12 +9901,12 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9911,7 +9914,7 @@
         <v>1066</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -9972,10 +9975,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>676</v>
@@ -9983,7 +9986,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>676</v>
@@ -9991,7 +9994,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>676</v>
@@ -9999,10 +10002,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
   </sheetData>
@@ -10057,7 +10060,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10065,7 +10068,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10073,7 +10076,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10081,7 +10084,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10097,7 +10100,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10139,7 +10142,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10173,26 +10176,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
   </sheetData>
@@ -10244,7 +10247,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10252,7 +10255,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10292,7 +10295,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10326,39 +10329,39 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>1673</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
   </sheetData>
@@ -10411,7 +10414,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10419,7 +10422,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10427,7 +10430,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10493,7 +10496,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10527,15 +10530,15 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>288</v>
@@ -10589,7 +10592,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10597,7 +10600,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10629,7 +10632,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10637,7 +10640,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10671,7 +10674,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10700,7 +10703,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10729,7 +10732,7 @@
         <v>278</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10758,12 +10761,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10808,10 +10811,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>689</v>
@@ -10865,7 +10868,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10873,7 +10876,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10947,17 +10950,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -11005,7 +11008,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11013,7 +11016,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11045,7 +11048,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11053,7 +11056,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11087,7 +11090,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11174,12 +11177,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11192,10 +11195,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>697</v>
@@ -11249,7 +11252,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11257,7 +11260,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11331,7 +11334,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11360,7 +11363,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11389,7 +11392,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11418,7 +11421,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11447,7 +11450,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11476,12 +11479,12 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -11542,7 +11545,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -11590,7 +11593,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11598,7 +11601,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11614,7 +11617,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11638,7 +11641,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11672,7 +11675,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11701,7 +11704,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11730,12 +11733,12 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11772,7 +11775,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -11820,7 +11823,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11828,7 +11831,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11844,7 +11847,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11902,7 +11905,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11931,7 +11934,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11960,12 +11963,12 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -12010,7 +12013,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -12058,7 +12061,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -12066,7 +12069,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12074,7 +12077,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12140,7 +12143,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12169,12 +12172,12 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12195,10 +12198,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>395</v>
@@ -12252,7 +12255,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -12260,7 +12263,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12268,7 +12271,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12276,7 +12279,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12334,39 +12337,39 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>1705</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
   </sheetData>
@@ -12427,7 +12430,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12435,7 +12438,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12501,7 +12504,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12530,7 +12533,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12559,7 +12562,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12588,12 +12591,12 @@
         <v>278</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -12601,7 +12604,7 @@
         <v>1107</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -12609,7 +12612,7 @@
         <v>1110</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -12622,10 +12625,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>707</v>
@@ -12633,7 +12636,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>707</v>
@@ -12698,7 +12701,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12706,7 +12709,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12714,7 +12717,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12772,7 +12775,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12801,12 +12804,12 @@
         <v>278</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12819,21 +12822,21 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -12885,7 +12888,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -12893,7 +12896,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12925,7 +12928,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12933,7 +12936,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -12967,7 +12970,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12996,7 +12999,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13025,7 +13028,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13054,7 +13057,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13083,7 +13086,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13112,12 +13115,12 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -13125,7 +13128,7 @@
         <v>748</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -13133,7 +13136,7 @@
         <v>752</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -13170,10 +13173,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>295</v>
@@ -13229,7 +13232,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13311,23 +13314,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -13378,7 +13381,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13460,23 +13463,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -13527,7 +13530,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13535,7 +13538,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13551,7 +13554,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13609,7 +13612,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13638,7 +13641,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13667,7 +13670,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13696,12 +13699,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13714,13 +13717,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
   </sheetData>
@@ -13771,7 +13774,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13853,17 +13856,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -13911,7 +13914,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13919,7 +13922,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13935,7 +13938,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13993,7 +13996,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -14022,7 +14025,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -14051,7 +14054,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -14080,12 +14083,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -14130,13 +14133,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
   </sheetData>
@@ -14187,7 +14190,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -14195,7 +14198,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14269,23 +14272,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -14393,7 +14396,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -14475,23 +14478,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -14542,7 +14545,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -14550,7 +14553,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14590,7 +14593,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -14624,7 +14627,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -14653,7 +14656,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -14682,7 +14685,7 @@
         <v>276</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -14740,12 +14743,12 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -14774,10 +14777,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>332</v>
@@ -14831,7 +14834,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -14839,7 +14842,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14855,7 +14858,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -14913,7 +14916,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -14942,7 +14945,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -14971,7 +14974,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -15000,12 +15003,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -15034,10 +15037,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>353</v>
@@ -15045,18 +15048,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -15109,7 +15112,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -15191,23 +15194,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
   </sheetData>
@@ -15258,7 +15261,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -15340,23 +15343,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -15407,7 +15410,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -15415,7 +15418,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -15455,7 +15458,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -15489,7 +15492,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -15518,7 +15521,7 @@
         <v>276</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -15605,7 +15608,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -15634,12 +15637,12 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -15684,10 +15687,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>360</v>
@@ -15741,7 +15744,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -15749,7 +15752,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -15765,7 +15768,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -15781,7 +15784,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -15823,7 +15826,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -15852,7 +15855,7 @@
         <v>278</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -15910,7 +15913,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -15997,12 +16000,12 @@
         <v>1264</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -16010,7 +16013,7 @@
         <v>1033</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -16026,7 +16029,7 @@
         <v>1039</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -16034,7 +16037,7 @@
         <v>1042</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -16042,15 +16045,15 @@
         <v>1044</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>634</v>
@@ -16058,7 +16061,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>634</v>
@@ -16066,7 +16069,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>634</v>
@@ -16126,7 +16129,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -16134,7 +16137,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -16208,23 +16211,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -16275,7 +16278,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -16357,23 +16360,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -16424,7 +16427,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -16506,23 +16509,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
   </sheetData>
@@ -18322,7 +18325,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -18330,7 +18333,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -18338,7 +18341,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -18346,7 +18349,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -18370,7 +18373,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -18404,7 +18407,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -18433,12 +18436,12 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -18451,10 +18454,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>374</v>
@@ -18508,7 +18511,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -18516,7 +18519,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -18548,7 +18551,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -18590,7 +18593,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -18624,12 +18627,12 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -18677,7 +18680,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -18759,23 +18762,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -18826,7 +18829,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -18908,23 +18911,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -18975,7 +18978,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -19057,23 +19060,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
   </sheetData>
@@ -19124,7 +19127,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -19206,23 +19209,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
   </sheetData>
@@ -19273,7 +19276,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -19281,7 +19284,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -19321,7 +19324,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -19355,7 +19358,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -19384,7 +19387,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -19413,12 +19416,12 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -19439,10 +19442,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>377</v>
@@ -19450,7 +19453,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>377</v>
@@ -19458,7 +19461,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="7" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>377</v>
@@ -19514,7 +19517,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -19596,23 +19599,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
@@ -19663,7 +19666,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -19745,23 +19748,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
@@ -19812,7 +19815,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -19820,7 +19823,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -19828,7 +19831,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -19836,7 +19839,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -19852,7 +19855,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -19894,7 +19897,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -19923,7 +19926,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -19952,7 +19955,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -19981,12 +19984,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -20010,7 +20013,7 @@
         <v>1000</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -20023,10 +20026,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>590</v>
@@ -23777,7 +23780,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -23785,7 +23788,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -23801,7 +23804,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -23817,7 +23820,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -23859,7 +23862,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -23888,7 +23891,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -23917,7 +23920,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -23946,12 +23949,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24012,10 +24015,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>583</v>
@@ -24023,10 +24026,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
@@ -24078,7 +24081,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -24160,23 +24163,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
   </sheetData>
@@ -24227,7 +24230,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -24309,23 +24312,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
   </sheetData>
@@ -24376,7 +24379,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -24458,23 +24461,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
   </sheetData>
@@ -24525,7 +24528,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -24533,7 +24536,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -24607,31 +24610,31 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>1440</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -24683,7 +24686,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -24691,7 +24694,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -24731,7 +24734,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -24765,7 +24768,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -24828,34 +24831,34 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
   </sheetData>
@@ -24908,7 +24911,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -24990,23 +24993,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
@@ -25057,7 +25060,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -25065,7 +25068,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -25139,7 +25142,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -25168,7 +25171,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -25197,7 +25200,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -25226,7 +25229,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -25255,7 +25258,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -25284,7 +25287,7 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -25313,12 +25316,12 @@
         <v>1264</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -25387,10 +25390,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>371</v>
@@ -25398,7 +25401,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>371</v>
@@ -25406,7 +25409,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>371</v>
@@ -25414,10 +25417,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
   </sheetData>
@@ -25471,7 +25474,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -25479,7 +25482,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -25553,7 +25556,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -25645,15 +25648,15 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>547</v>
@@ -25661,10 +25664,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
   </sheetData>
@@ -25716,7 +25719,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -25798,7 +25801,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -25827,7 +25830,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -25856,7 +25859,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -25885,7 +25888,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -25914,7 +25917,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -25943,7 +25946,7 @@
         <v>278</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -25972,12 +25975,12 @@
         <v>278</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -26006,10 +26009,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>382</v>
@@ -28609,7 +28612,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -28617,7 +28620,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -28649,7 +28652,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -28691,7 +28694,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -28720,12 +28723,12 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -28754,7 +28757,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -28802,7 +28805,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -28884,23 +28887,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>
@@ -28951,7 +28954,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29033,7 +29036,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -29067,26 +29070,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -29138,7 +29141,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29220,23 +29223,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
   </sheetData>
@@ -29287,7 +29290,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29295,7 +29298,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -29303,7 +29306,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -29311,7 +29314,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -29319,7 +29322,7 @@
         <v>1267</v>
       </c>
       <c r="B7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -29369,7 +29372,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -29398,7 +29401,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -29427,7 +29430,7 @@
         <v>278</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -29456,7 +29459,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -29485,12 +29488,12 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -29543,10 +29546,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>398</v>
@@ -29554,7 +29557,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>398</v>
@@ -29562,7 +29565,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>398</v>
@@ -29618,7 +29621,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29700,7 +29703,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -29734,26 +29737,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -29805,7 +29808,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29887,23 +29890,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
   </sheetData>
@@ -29954,7 +29957,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -29962,7 +29965,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -29970,7 +29973,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -30002,7 +30005,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -30036,7 +30039,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -30215,15 +30218,15 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>599</v>
@@ -30231,18 +30234,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
   </sheetData>
@@ -30295,7 +30298,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -30377,23 +30380,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
@@ -30444,7 +30447,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -30526,7 +30529,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -30555,7 +30558,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -30584,7 +30587,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -30613,12 +30616,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -30655,7 +30658,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -30785,23 +30788,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
@@ -30852,7 +30855,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -30934,23 +30937,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
@@ -31001,7 +31004,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31083,23 +31086,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -31150,7 +31153,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31232,23 +31235,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -31299,7 +31302,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31381,23 +31384,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
   </sheetData>
@@ -31448,7 +31451,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31456,7 +31459,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -31464,7 +31467,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -31472,7 +31475,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -31488,7 +31491,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -31496,7 +31499,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -31530,7 +31533,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -31559,7 +31562,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -31588,7 +31591,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -31617,7 +31620,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -31646,7 +31649,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -31675,12 +31678,12 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -31741,10 +31744,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>858</v>
@@ -31752,7 +31755,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>853</v>
@@ -31760,7 +31763,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>853</v>
@@ -31768,10 +31771,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>
@@ -31825,7 +31828,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31833,7 +31836,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -31873,7 +31876,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -31907,7 +31910,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -31936,7 +31939,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -31965,7 +31968,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -31994,7 +31997,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -32023,7 +32026,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -32052,7 +32055,7 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -32081,7 +32084,7 @@
         <v>1264</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -32110,7 +32113,7 @@
         <v>1264</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -32139,7 +32142,7 @@
         <v>1264</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -32168,7 +32171,7 @@
         <v>1264</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -32197,7 +32200,7 @@
         <v>278</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -32226,7 +32229,7 @@
         <v>278</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -32255,7 +32258,7 @@
         <v>1264</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -32284,7 +32287,7 @@
         <v>1264</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -32313,7 +32316,7 @@
         <v>1264</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -32342,7 +32345,7 @@
         <v>1264</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -32371,7 +32374,7 @@
         <v>1264</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -32400,12 +32403,12 @@
         <v>1264</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -32442,10 +32445,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>434</v>
@@ -32499,7 +32502,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -32507,7 +32510,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -32515,7 +32518,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -32581,7 +32584,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -32610,7 +32613,7 @@
         <v>278</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -32639,7 +32642,7 @@
         <v>278</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -32668,12 +32671,12 @@
         <v>278</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -32726,10 +32729,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>574</v>
@@ -32737,7 +32740,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>960</v>
@@ -32745,10 +32748,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
   </sheetData>
@@ -32801,7 +32804,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -32883,23 +32886,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -32950,7 +32953,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -32958,7 +32961,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -32974,7 +32977,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -33032,7 +33035,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -33061,7 +33064,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -33090,7 +33093,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -33119,12 +33122,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -33161,10 +33164,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>564</v>
@@ -33172,42 +33175,42 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>1537</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
   </sheetData>
@@ -33263,7 +33266,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -33345,7 +33348,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -33374,7 +33377,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -33403,7 +33406,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -33432,7 +33435,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -33461,7 +33464,7 @@
         <v>278</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -33490,12 +33493,12 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -33503,7 +33506,7 @@
         <v>897</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -33564,13 +33567,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
   </sheetData>
@@ -33622,7 +33625,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -33630,7 +33633,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -33646,7 +33649,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -33704,7 +33707,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -33762,7 +33765,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -33791,12 +33794,12 @@
         <v>276</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -33812,7 +33815,7 @@
         <v>748</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -33820,15 +33823,15 @@
         <v>752</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>277</v>
@@ -33836,7 +33839,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>277</v>
@@ -33893,7 +33896,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -33901,7 +33904,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -33975,23 +33978,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -34042,7 +34045,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34124,23 +34127,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
   </sheetData>
@@ -34191,7 +34194,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34273,23 +34276,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -34340,7 +34343,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34422,23 +34425,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
   </sheetData>
@@ -34489,7 +34492,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34497,7 +34500,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -34513,7 +34516,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -34529,7 +34532,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -34571,7 +34574,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -34600,7 +34603,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -34750,7 +34753,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -34771,10 +34774,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>517</v>
@@ -34782,7 +34785,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>517</v>
@@ -34790,7 +34793,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>914</v>
@@ -34798,10 +34801,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
   </sheetData>
@@ -34855,7 +34858,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -34937,17 +34940,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -34995,7 +34998,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35003,7 +35006,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -35011,7 +35014,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -35035,7 +35038,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -35043,7 +35046,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -35077,7 +35080,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -35106,7 +35109,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -35135,7 +35138,7 @@
         <v>278</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -35222,7 +35225,7 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -35251,12 +35254,12 @@
         <v>1264</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -35288,7 +35291,7 @@
         <v>1053</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -35325,10 +35328,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>650</v>
@@ -35336,26 +35339,26 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
   </sheetData>
@@ -35410,7 +35413,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -35418,7 +35421,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -35426,7 +35429,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -35434,7 +35437,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -35450,7 +35453,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -35492,7 +35495,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -35521,7 +35524,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -35550,7 +35553,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -35579,7 +35582,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -35608,7 +35611,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -35637,7 +35640,7 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -35666,7 +35669,7 @@
         <v>1264</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -35695,7 +35698,7 @@
         <v>1264</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -35724,7 +35727,7 @@
         <v>1264</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -35753,7 +35756,7 @@
         <v>278</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -35782,7 +35785,7 @@
         <v>1264</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -35811,7 +35814,7 @@
         <v>1264</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -35840,7 +35843,7 @@
         <v>1264</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -35869,7 +35872,7 @@
         <v>1264</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -35898,7 +35901,7 @@
         <v>1264</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -35927,7 +35930,7 @@
         <v>1264</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -35956,7 +35959,7 @@
         <v>1264</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -35985,7 +35988,7 @@
         <v>1264</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -36014,12 +36017,12 @@
         <v>278</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -36072,29 +36075,29 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="7" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="7" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
   </sheetData>
@@ -36147,7 +36150,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -36229,17 +36232,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -36287,7 +36290,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -36369,17 +36372,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -36427,7 +36430,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -36435,7 +36438,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -36467,7 +36470,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -36475,7 +36478,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -36509,7 +36512,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -36538,7 +36541,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -36567,7 +36570,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -36596,7 +36599,7 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -36625,7 +36628,7 @@
         <v>1264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -36654,7 +36657,7 @@
         <v>1264</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -36712,7 +36715,7 @@
         <v>1264</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -36741,7 +36744,7 @@
         <v>1264</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -36770,12 +36773,12 @@
         <v>1264</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -36815,7 +36818,7 @@
         <v>748</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -36823,7 +36826,7 @@
         <v>752</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -36844,10 +36847,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>285</v>
@@ -36855,26 +36858,26 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="7" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="7" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="7" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>
@@ -36930,7 +36933,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37012,17 +37015,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -37070,7 +37073,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37152,17 +37155,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -37210,7 +37213,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37292,17 +37295,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -37350,7 +37353,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37432,23 +37435,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
   </sheetData>
@@ -37499,7 +37502,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37531,7 +37534,7 @@
         <v>1267</v>
       </c>
       <c r="B7" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -37581,23 +37584,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
   </sheetData>
@@ -37648,7 +37651,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37680,7 +37683,7 @@
         <v>1267</v>
       </c>
       <c r="B7" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -37730,23 +37733,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
@@ -37797,7 +37800,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -37879,23 +37882,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
   </sheetData>
@@ -37946,7 +37949,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -38028,17 +38031,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -38086,7 +38089,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -38168,23 +38171,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
   </sheetData>
@@ -38235,7 +38238,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -38317,23 +38320,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
   </sheetData>
@@ -38384,7 +38387,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -38392,7 +38395,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -38400,7 +38403,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -38424,7 +38427,7 @@
         <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -38432,7 +38435,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -38466,7 +38469,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -38495,7 +38498,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -38524,7 +38527,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -38616,7 +38619,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -38645,34 +38648,34 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>965</v>
@@ -38680,7 +38683,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>965</v>
@@ -38688,7 +38691,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>965</v>
@@ -38696,7 +38699,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>968</v>
@@ -38704,15 +38707,15 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>968</v>
@@ -38720,10 +38723,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -38783,7 +38786,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -38791,7 +38794,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -38799,7 +38802,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -38807,7 +38810,7 @@
         <v>1266</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -38831,7 +38834,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -38865,47 +38868,47 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>1608</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
   </sheetData>
@@ -38959,7 +38962,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -38967,7 +38970,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -39041,17 +39044,17 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -39099,7 +39102,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -39107,7 +39110,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -39115,7 +39118,7 @@
         <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -39181,23 +39184,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
@@ -39248,7 +39251,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -39330,23 +39333,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
   </sheetData>
@@ -39397,7 +39400,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -39479,23 +39482,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
   </sheetData>
@@ -39546,7 +39549,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -39554,7 +39557,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -39628,7 +39631,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -39691,12 +39694,12 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -39744,7 +39747,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -39752,7 +39755,7 @@
         <v>1263</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -39792,7 +39795,7 @@
         <v>1269</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -39826,7 +39829,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -39855,7 +39858,7 @@
         <v>1264</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -39884,7 +39887,7 @@
         <v>1264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -39913,12 +39916,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -39963,7 +39966,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -40011,7 +40014,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -40093,23 +40096,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
@@ -40160,7 +40163,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -40242,23 +40245,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
@@ -40309,7 +40312,7 @@
         <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -40391,23 +40394,23 @@
         <v>728</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
   </sheetData>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -204,7 +204,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-08-14T17:13:07.460242+00:00</t>
+    <t>2025-08-14T17:13:50.193874+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -206,7 +206,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-08-14T17:15:40.435962+00:00</t>
+    <t>2025-08-21T08:05:30.429366+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -206,7 +206,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-08-21T08:05:30.429366+00:00</t>
+    <t>2025-08-27T18:42:50.622540+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -206,7 +206,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-08-27T18:42:50.622540+00:00</t>
+    <t>2025-08-27T19:02:15.691337+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -206,7 +206,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-08-27T19:02:15.691337+00:00</t>
+    <t>2025-09-02T12:00:57.633607+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -206,7 +206,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-02T12:00:57.633607+00:00</t>
+    <t>2025-09-02T12:02:33.418389+00:00</t>
   </si>
   <si>
     <t>Number of techniques</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -4221,7 +4221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9425" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9425" uniqueCount="1913">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -8690,6 +8690,9 @@
   </si>
   <si>
     <t>M1003, M1004</t>
+  </si>
+  <si>
+    <t>Check hash of image matches hash of source device (T1042)</t>
   </si>
   <si>
     <t>Nikkel, B., 2016. Practical forensic imaging: securing digital evidence with Linux tools. No Starch Press, Chapter 6, “Forensic Image Acquisition</t>
@@ -10137,7 +10140,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-13T22:09:35.415763+00:00</t>
+    <t>2025-09-13T22:10:03.295214+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -11267,7 +11270,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11275,7 +11278,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11307,7 +11310,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11665,7 +11668,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11673,7 +11676,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11768,7 +11771,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
@@ -11820,7 +11823,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11828,7 +11831,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11923,7 +11926,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -11975,7 +11978,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11983,7 +11986,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12078,7 +12081,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
   </sheetData>
@@ -12130,7 +12133,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12138,7 +12141,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12274,7 +12277,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12377,7 +12380,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>
@@ -12429,7 +12432,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12437,7 +12440,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12453,7 +12456,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12529,18 +12532,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>1775</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1774</v>
       </c>
     </row>
   </sheetData>
@@ -12593,7 +12596,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12737,7 +12740,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12745,7 +12748,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13025,7 +13028,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13169,7 +13172,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13177,7 +13180,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13209,7 +13212,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13283,7 +13286,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13296,7 +13299,7 @@
         <v>999</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13304,7 +13307,7 @@
         <v>1002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -13322,18 +13325,18 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="7" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
   </sheetData>
@@ -13534,7 +13537,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13678,7 +13681,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13822,7 +13825,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13966,7 +13969,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13990,7 +13993,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14093,7 +14096,7 @@
         <v>1184</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -14103,7 +14106,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>674</v>
@@ -14168,7 +14171,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14184,7 +14187,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14200,7 +14203,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14342,7 +14345,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14519,7 +14522,7 @@
         <v>1148</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -14529,10 +14532,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
   </sheetData>
@@ -14594,7 +14597,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14634,7 +14637,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14700,7 +14703,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14729,7 +14732,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14787,7 +14790,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -14800,7 +14803,7 @@
         <v>1148</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -14866,7 +14869,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>687</v>
@@ -14874,7 +14877,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>687</v>
@@ -14882,7 +14885,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>687</v>
@@ -14890,10 +14893,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
   </sheetData>
@@ -14958,7 +14961,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14966,7 +14969,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14974,7 +14977,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15079,18 +15082,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
   </sheetData>
@@ -15144,7 +15147,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15152,7 +15155,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15192,7 +15195,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15244,26 +15247,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>1806</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -15317,7 +15320,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15325,7 +15328,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15333,7 +15336,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15446,7 +15449,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>299</v>
@@ -15502,7 +15505,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15510,7 +15513,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15542,7 +15545,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15550,7 +15553,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15616,7 +15619,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -15645,7 +15648,7 @@
         <v>289</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -15674,7 +15677,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -15729,7 +15732,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>700</v>
@@ -15785,7 +15788,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15793,7 +15796,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15929,7 +15932,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15937,7 +15940,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15969,7 +15972,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15977,7 +15980,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16124,7 +16127,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>708</v>
@@ -16180,7 +16183,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16188,7 +16191,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16196,7 +16199,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16220,7 +16223,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16228,7 +16231,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16317,7 +16320,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>720</v>
@@ -16325,7 +16328,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>720</v>
@@ -16382,7 +16385,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16390,7 +16393,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16398,7 +16401,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16406,7 +16409,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16422,7 +16425,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16430,7 +16433,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16538,7 +16541,7 @@
         <v>1184</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -16594,7 +16597,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16602,7 +16605,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16708,7 +16711,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -16737,7 +16740,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -16766,7 +16769,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -16795,7 +16798,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -16824,7 +16827,7 @@
         <v>1418</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -16845,7 +16848,7 @@
         <v>907</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -16941,7 +16944,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16949,7 +16952,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16965,7 +16968,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16989,7 +16992,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17055,7 +17058,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17084,7 +17087,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -17131,18 +17134,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
   </sheetData>
@@ -17196,7 +17199,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17204,7 +17207,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17220,7 +17223,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17310,7 +17313,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17339,7 +17342,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -17402,10 +17405,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
   </sheetData>
@@ -17458,7 +17461,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17466,7 +17469,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17474,7 +17477,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17572,7 +17575,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17593,7 +17596,7 @@
         <v>907</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -17603,7 +17606,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>406</v>
@@ -17660,7 +17663,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17668,7 +17671,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17676,7 +17679,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17684,7 +17687,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17787,7 +17790,7 @@
         <v>1225</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -17797,7 +17800,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>742</v>
@@ -17805,7 +17808,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>742</v>
@@ -17813,7 +17816,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>742</v>
@@ -17872,7 +17875,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17880,7 +17883,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17912,7 +17915,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17920,7 +17923,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17986,7 +17989,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18073,7 +18076,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -18165,7 +18168,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>306</v>
@@ -18231,7 +18234,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18239,7 +18242,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18337,7 +18340,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18366,7 +18369,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18408,7 +18411,7 @@
         <v>1197</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -18416,7 +18419,7 @@
         <v>1200</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18434,7 +18437,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>726</v>
@@ -18442,7 +18445,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>726</v>
@@ -18509,7 +18512,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18517,7 +18520,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18525,7 +18528,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18638,18 +18641,18 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
   </sheetData>
@@ -18703,7 +18706,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18711,7 +18714,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18719,7 +18722,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18727,7 +18730,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18847,7 +18850,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18855,7 +18858,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18947,18 +18950,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
   </sheetData>
@@ -19011,7 +19014,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19019,7 +19022,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19035,7 +19038,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19155,7 +19158,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19163,7 +19166,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19255,10 +19258,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
   </sheetData>
@@ -19310,7 +19313,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19318,7 +19321,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19326,7 +19329,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19410,10 +19413,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
   </sheetData>
@@ -19465,7 +19468,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19473,7 +19476,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19489,7 +19492,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19505,7 +19508,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19513,7 +19516,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19579,7 +19582,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19608,7 +19611,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19637,7 +19640,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19666,7 +19669,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -19695,7 +19698,7 @@
         <v>1418</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -19724,7 +19727,7 @@
         <v>1418</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19782,7 +19785,7 @@
         <v>1418</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -19811,7 +19814,7 @@
         <v>1418</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -19840,7 +19843,7 @@
         <v>1418</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -19869,7 +19872,7 @@
         <v>1418</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -19898,7 +19901,7 @@
         <v>1418</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -19956,7 +19959,7 @@
         <v>1418</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -19985,7 +19988,7 @@
         <v>1418</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -20014,7 +20017,7 @@
         <v>1418</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -20043,7 +20046,7 @@
         <v>1418</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -20072,7 +20075,7 @@
         <v>1418</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -20101,7 +20104,7 @@
         <v>1418</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -20130,7 +20133,7 @@
         <v>287</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -20159,7 +20162,7 @@
         <v>1418</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -20188,7 +20191,7 @@
         <v>1418</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -20217,7 +20220,7 @@
         <v>1418</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -20246,7 +20249,7 @@
         <v>1418</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -20275,7 +20278,7 @@
         <v>1418</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -20304,7 +20307,7 @@
         <v>1418</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -20333,7 +20336,7 @@
         <v>1418</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -20516,7 +20519,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="7" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>745</v>
@@ -20524,7 +20527,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="7" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>745</v>
@@ -20581,7 +20584,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20684,7 +20687,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
   </sheetData>
@@ -20736,7 +20739,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20839,7 +20842,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
   </sheetData>
@@ -20891,7 +20894,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20899,7 +20902,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20915,7 +20918,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21086,10 +21089,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
   </sheetData>
@@ -21142,7 +21145,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21286,7 +21289,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21294,7 +21297,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -21310,7 +21313,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21400,7 +21403,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -21513,10 +21516,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
   </sheetData>
@@ -21569,7 +21572,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21577,7 +21580,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -21669,10 +21672,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -21700,23 +21703,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B2" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -21724,7 +21727,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B4">
         <v>132</v>
@@ -21732,7 +21735,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B5">
         <v>227</v>
@@ -21740,7 +21743,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B6">
         <v>170</v>
@@ -21748,7 +21751,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -21756,7 +21759,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B8">
         <v>0.42</v>
@@ -21805,7 +21808,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21908,7 +21911,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
   </sheetData>
@@ -21968,7 +21971,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -22008,7 +22011,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22074,7 +22077,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -22161,7 +22164,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -22264,7 +22267,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -22280,7 +22283,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22428,7 +22431,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -22467,7 +22470,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>364</v>
@@ -22475,18 +22478,18 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
   </sheetData>
@@ -22644,7 +22647,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>
@@ -22799,7 +22802,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -22859,7 +22862,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -22899,7 +22902,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22965,7 +22968,7 @@
         <v>287</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -23052,7 +23055,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -23200,7 +23203,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23216,7 +23219,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23232,7 +23235,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -23451,7 +23454,7 @@
         <v>1418</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -23464,7 +23467,7 @@
         <v>1115</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -23480,7 +23483,7 @@
         <v>1121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -23488,7 +23491,7 @@
         <v>1124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -23496,7 +23499,7 @@
         <v>1126</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -23506,7 +23509,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>645</v>
@@ -23514,7 +23517,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>645</v>
@@ -23522,7 +23525,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>645</v>
@@ -23592,7 +23595,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23684,10 +23687,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
   </sheetData>
@@ -23842,7 +23845,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
   </sheetData>
@@ -23997,7 +24000,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
   </sheetData>
@@ -25918,7 +25921,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -25926,7 +25929,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25934,7 +25937,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -25958,7 +25961,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26111,7 +26114,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -26143,7 +26146,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26380,7 +26383,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
   </sheetData>
@@ -26535,7 +26538,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
   </sheetData>
@@ -26690,7 +26693,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
@@ -26845,7 +26848,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -26897,7 +26900,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26905,7 +26908,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -26945,7 +26948,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27071,7 +27074,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>388</v>
@@ -27079,7 +27082,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="7" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>388</v>
@@ -27087,7 +27090,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>388</v>
@@ -27145,7 +27148,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27248,7 +27251,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
@@ -27300,7 +27303,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27403,7 +27406,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
   </sheetData>
@@ -27455,7 +27458,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27463,7 +27466,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -27471,7 +27474,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27479,7 +27482,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27495,7 +27498,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -27569,7 +27572,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -27598,7 +27601,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -27627,7 +27630,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -27656,7 +27659,7 @@
         <v>1082</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -27674,7 +27677,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>601</v>
@@ -31971,7 +31974,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31979,7 +31982,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -31995,7 +31998,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -32011,7 +32014,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -32085,7 +32088,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -32114,7 +32117,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -32143,7 +32146,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -32214,7 +32217,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>594</v>
@@ -32222,10 +32225,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
   </sheetData>
@@ -32279,7 +32282,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32382,7 +32385,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
   </sheetData>
@@ -32434,7 +32437,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32537,7 +32540,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
   </sheetData>
@@ -32589,7 +32592,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32692,7 +32695,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
   </sheetData>
@@ -32744,7 +32747,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32752,7 +32755,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -32844,18 +32847,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>1579</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1578</v>
       </c>
     </row>
   </sheetData>
@@ -32908,7 +32911,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32916,7 +32919,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -32956,7 +32959,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -33066,26 +33069,26 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
   </sheetData>
@@ -33140,7 +33143,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33243,7 +33246,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
   </sheetData>
@@ -33295,7 +33298,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33303,7 +33306,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -33409,7 +33412,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -33438,7 +33441,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -33467,7 +33470,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -33496,7 +33499,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -33554,7 +33557,7 @@
         <v>1418</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -33633,7 +33636,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>382</v>
@@ -33641,7 +33644,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>382</v>
@@ -33649,7 +33652,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>382</v>
@@ -33657,10 +33660,10 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
   </sheetData>
@@ -33716,7 +33719,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33724,7 +33727,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -33911,10 +33914,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
   </sheetData>
@@ -33968,7 +33971,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -34082,7 +34085,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -34111,7 +34114,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -34140,7 +34143,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -34169,7 +34172,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -37242,7 +37245,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37250,7 +37253,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -37282,7 +37285,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -37356,7 +37359,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -37440,7 +37443,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37543,7 +37546,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
   </sheetData>
@@ -37595,7 +37598,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37727,15 +37730,15 @@
         <v>1431</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
   </sheetData>
@@ -37789,7 +37792,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37892,7 +37895,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
   </sheetData>
@@ -37944,7 +37947,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37952,7 +37955,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -37960,7 +37963,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -37968,7 +37971,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -37976,7 +37979,7 @@
         <v>1421</v>
       </c>
       <c r="B7" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -38058,7 +38061,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -38116,7 +38119,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -38216,15 +38219,15 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>409</v>
@@ -38232,7 +38235,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>409</v>
@@ -38240,10 +38243,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
   </sheetData>
@@ -38299,7 +38302,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38431,15 +38434,15 @@
         <v>1431</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
   </sheetData>
@@ -38493,7 +38496,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38596,7 +38599,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
   </sheetData>
@@ -38648,7 +38651,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38656,7 +38659,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -38664,7 +38667,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -38696,7 +38699,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -38922,7 +38925,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>610</v>
@@ -38930,18 +38933,18 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
   </sheetData>
@@ -38996,7 +38999,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39099,7 +39102,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
   </sheetData>
@@ -39151,7 +39154,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39265,7 +39268,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -39294,7 +39297,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -39323,7 +39326,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -39570,7 +39573,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39673,7 +39676,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
   </sheetData>
@@ -39725,7 +39728,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39828,7 +39831,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
   </sheetData>
@@ -39880,7 +39883,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39888,7 +39891,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -39980,10 +39983,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
   </sheetData>
@@ -40035,7 +40038,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -40138,7 +40141,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
   </sheetData>
@@ -40190,7 +40193,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -40198,7 +40201,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -40206,7 +40209,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -40214,7 +40217,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -40230,7 +40233,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -40238,7 +40241,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -40333,7 +40336,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -40391,7 +40394,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -40420,7 +40423,7 @@
         <v>1418</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -40491,7 +40494,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>938</v>
@@ -40499,7 +40502,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>933</v>
@@ -40507,7 +40510,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>933</v>
@@ -40515,10 +40518,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -40574,7 +40577,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -40582,7 +40585,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -40622,7 +40625,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -40688,7 +40691,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -40717,7 +40720,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -40746,7 +40749,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -40775,7 +40778,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -40804,7 +40807,7 @@
         <v>1418</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -40833,7 +40836,7 @@
         <v>1418</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -40862,7 +40865,7 @@
         <v>1418</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -40891,7 +40894,7 @@
         <v>1418</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -40920,7 +40923,7 @@
         <v>1418</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -40949,7 +40952,7 @@
         <v>289</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -40978,7 +40981,7 @@
         <v>289</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -41007,7 +41010,7 @@
         <v>1418</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -41036,7 +41039,7 @@
         <v>1418</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -41065,7 +41068,7 @@
         <v>1418</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -41094,7 +41097,7 @@
         <v>1418</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -41123,7 +41126,7 @@
         <v>1418</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -41152,7 +41155,7 @@
         <v>1418</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -41199,7 +41202,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="7" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>445</v>
@@ -41255,7 +41258,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41263,7 +41266,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -41271,7 +41274,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -41398,7 +41401,7 @@
         <v>289</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -41427,7 +41430,7 @@
         <v>289</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -41498,7 +41501,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>1042</v>
@@ -41506,10 +41509,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
   </sheetData>
@@ -41564,7 +41567,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41667,7 +41670,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -41719,7 +41722,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41727,7 +41730,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -41743,7 +41746,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -41833,7 +41836,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -41862,7 +41865,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -41891,7 +41894,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -41938,7 +41941,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>575</v>
@@ -41946,42 +41949,42 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>1678</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
@@ -42039,7 +42042,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42182,7 +42185,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -42211,7 +42214,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -42269,7 +42272,7 @@
         <v>1418</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -42282,7 +42285,7 @@
         <v>979</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -42348,10 +42351,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
   </sheetData>
@@ -42683,7 +42686,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42691,7 +42694,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -42786,7 +42789,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
   </sheetData>
@@ -42838,7 +42841,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42941,7 +42944,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
   </sheetData>
@@ -42993,7 +42996,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43096,7 +43099,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
@@ -43148,7 +43151,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43251,7 +43254,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
@@ -43303,7 +43306,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43311,7 +43314,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -43327,7 +43330,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -43343,7 +43346,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -43417,7 +43420,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -43593,7 +43596,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>528</v>
@@ -43601,7 +43604,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>528</v>
@@ -43609,7 +43612,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>996</v>
@@ -43617,10 +43620,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -43676,7 +43679,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43820,7 +43823,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43828,7 +43831,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -43836,7 +43839,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -43860,7 +43863,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -43868,7 +43871,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -43934,7 +43937,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -43963,7 +43966,7 @@
         <v>289</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -44116,7 +44119,7 @@
         <v>1135</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -44158,7 +44161,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>661</v>
@@ -44166,26 +44169,26 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -44242,7 +44245,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44250,7 +44253,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -44258,7 +44261,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -44266,7 +44269,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -44282,7 +44285,7 @@
         <v>1422</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -44356,7 +44359,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -44385,7 +44388,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -44414,7 +44417,7 @@
         <v>1418</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -44443,7 +44446,7 @@
         <v>1418</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -44472,7 +44475,7 @@
         <v>1418</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -44501,7 +44504,7 @@
         <v>1418</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -44530,7 +44533,7 @@
         <v>1418</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -44559,7 +44562,7 @@
         <v>1418</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -44588,7 +44591,7 @@
         <v>289</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -44617,7 +44620,7 @@
         <v>1418</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -44646,7 +44649,7 @@
         <v>1418</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -44675,7 +44678,7 @@
         <v>1418</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -44704,7 +44707,7 @@
         <v>1418</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -44733,7 +44736,7 @@
         <v>1418</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -44762,7 +44765,7 @@
         <v>1418</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -44791,7 +44794,7 @@
         <v>1418</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -44820,7 +44823,7 @@
         <v>1418</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -44849,7 +44852,7 @@
         <v>289</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -44912,26 +44915,26 @@
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="7" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
   </sheetData>
@@ -44986,7 +44989,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45130,7 +45133,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45640,8 +45643,8 @@
       <c r="A25" t="s">
         <v>817</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>818</v>
+      <c r="B25" s="3" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -45699,7 +45702,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="7" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>296</v>
@@ -45707,26 +45710,26 @@
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="7" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="7" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="7" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
   </sheetData>
@@ -45738,6 +45741,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
+    <hyperlink ref="B25" location="T1042!A1" display="Check hash of image matches hash of source device (T1042)"/>
     <hyperlink ref="B28" location="T1012!A1" display="Use hardware write blocker (T1012)"/>
     <hyperlink ref="B29" location="T1013!A1" display="Use software write blocker (T1013)"/>
   </hyperlinks>
@@ -45784,7 +45788,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45928,7 +45932,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46072,7 +46076,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46216,7 +46220,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46319,7 +46323,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
   </sheetData>
@@ -46371,7 +46375,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46403,7 +46407,7 @@
         <v>1421</v>
       </c>
       <c r="B7" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -46474,7 +46478,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
   </sheetData>
@@ -46526,7 +46530,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46629,7 +46633,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
   </sheetData>
@@ -46681,7 +46685,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46784,7 +46788,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
   </sheetData>
@@ -46836,7 +46840,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46980,7 +46984,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47083,7 +47087,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
   </sheetData>
@@ -47135,7 +47139,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47238,7 +47242,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
   </sheetData>
@@ -47298,7 +47302,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -47306,7 +47310,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -47338,7 +47342,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -47404,7 +47408,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -47559,31 +47563,31 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>1047</v>
@@ -47591,7 +47595,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>1047</v>
@@ -47599,7 +47603,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>1047</v>
@@ -47607,7 +47611,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>1050</v>
@@ -47615,15 +47619,15 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>1050</v>
@@ -47631,10 +47635,10 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -47696,7 +47700,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47704,7 +47708,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -47712,7 +47716,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -47720,7 +47724,7 @@
         <v>1420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -47744,7 +47748,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -47796,34 +47800,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>1743</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
   </sheetData>
@@ -47878,7 +47882,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47886,7 +47890,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -48022,7 +48026,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48030,7 +48034,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -48038,7 +48042,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -48122,10 +48126,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
   </sheetData>
@@ -48177,7 +48181,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48280,7 +48284,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
   </sheetData>
@@ -48332,7 +48336,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48435,7 +48439,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
@@ -48487,7 +48491,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48495,7 +48499,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -48503,7 +48507,7 @@
         <v>1419</v>
       </c>
       <c r="B5" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -48690,7 +48694,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48698,7 +48702,7 @@
         <v>1417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -48738,7 +48742,7 @@
         <v>1423</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -48804,7 +48808,7 @@
         <v>1418</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -48833,7 +48837,7 @@
         <v>1418</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -48962,7 +48966,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49065,7 +49069,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
   </sheetData>
@@ -49117,7 +49121,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49220,7 +49224,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -49272,7 +49276,7 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49375,7 +49379,7 @@
         <v>1431</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-15T12:28:55.893184+00:00</t>
+    <t>2025-09-15T15:25:28.797069+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-15T15:25:28.797069+00:00</t>
+    <t>2025-09-15T15:28:03.819426+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-15T15:28:03.819426+00:00</t>
+    <t>2025-09-17T16:54:12.434227+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-17T16:54:12.434227+00:00</t>
+    <t>2025-09-21T16:21:39.025783+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-21T16:21:39.025783+00:00</t>
+    <t>2025-09-21T16:25:37.356431+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-21T16:25:37.356431+00:00</t>
+    <t>2025-09-21T16:26:45.719446+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-21T16:26:45.719446+00:00</t>
+    <t>2025-09-24T14:42:09.844823+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-24T14:42:09.844823+00:00</t>
+    <t>2025-09-24T14:43:34.554803+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10542,7 +10542,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-24T14:43:34.554803+00:00</t>
+    <t>2025-10-02T14:17:14.259880+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -8406,7 +8406,7 @@
     <t>In weakness</t>
   </si>
   <si>
-    <t>Weakness occurances</t>
+    <t>Weakness occurrences</t>
   </si>
   <si>
     <t>Crime scene searching
@@ -9593,7 +9593,13 @@
     <t>This search may be conducted live, directly over the data, or from a generated index of strings extracted from the data. The words searched for may be either case-specific, or sometimes case-type specific.</t>
   </si>
   <si>
-    <t>['T1125:Keyword search (live)', 'T1126:Keyword search (live) (physical)', 'T1127:Keyword search (live) (logical)', 'T1124:Keyword search (indexed)', 'T1121:Keyword indexing', 'T1122:Keyword search (case-type wordlists)', 'T1123:Keyword search (case-specific wordlists)']</t>
+    <t>['T1125:Keyword search (live)',
+ 'T1126:Keyword search (live) (physical)',
+ 'T1127:Keyword search (live) (logical)',
+ 'T1124:Keyword search (indexed)',
+ 'T1121:Keyword indexing',
+ 'T1122:Keyword search (case-type wordlists)',
+ 'T1123:Keyword search (case-specific wordlists)']</t>
   </si>
   <si>
     <t>M1035, M1036</t>
@@ -10542,7 +10548,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-02T14:17:14.259880+00:00</t>
+    <t>2025-10-02T14:20:06.225504+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -11687,7 +11693,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1532</v>
       </c>
     </row>
@@ -11703,7 +11709,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12093,7 +12099,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12109,7 +12115,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12248,7 +12254,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12264,7 +12270,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12403,7 +12409,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12419,7 +12425,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12558,7 +12564,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12574,7 +12580,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12713,7 +12719,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12729,7 +12735,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12868,7 +12874,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12884,7 +12890,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13012,7 +13018,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13028,7 +13034,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13167,7 +13173,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13183,7 +13189,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13331,7 +13337,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13347,7 +13353,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13475,7 +13481,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13491,7 +13497,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13619,7 +13625,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13635,7 +13641,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13840,7 +13846,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13856,7 +13862,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13984,7 +13990,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14000,7 +14006,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14128,7 +14134,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14144,7 +14150,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14272,7 +14278,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14288,7 +14294,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14416,7 +14422,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14432,7 +14438,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14560,7 +14566,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14576,7 +14582,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14704,7 +14710,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14720,7 +14726,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14898,7 +14904,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14914,7 +14920,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -15072,7 +15078,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -15088,7 +15094,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -15324,7 +15330,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -15340,7 +15346,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -15688,7 +15694,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -15704,7 +15710,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -15873,7 +15879,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1872</v>
       </c>
     </row>
@@ -15889,7 +15895,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -16067,7 +16073,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -16083,7 +16089,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -16240,7 +16246,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -16256,7 +16262,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -16523,7 +16529,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -16539,7 +16545,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -16754,7 +16760,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -16770,7 +16776,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -17005,7 +17011,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1895</v>
       </c>
     </row>
@@ -17021,7 +17027,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -17207,7 +17213,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1901</v>
       </c>
     </row>
@@ -17223,7 +17229,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -17419,7 +17425,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -17435,7 +17441,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -17766,7 +17772,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -17782,7 +17788,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -18021,7 +18027,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -18037,7 +18043,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -18283,7 +18289,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -18299,7 +18305,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -18634,7 +18640,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1922</v>
       </c>
     </row>
@@ -18650,7 +18656,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -18836,7 +18842,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1925</v>
       </c>
     </row>
@@ -18852,7 +18858,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19048,7 +19054,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1925</v>
       </c>
     </row>
@@ -19064,7 +19070,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19326,7 +19332,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1925</v>
       </c>
     </row>
@@ -19342,7 +19348,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19528,7 +19534,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1938</v>
       </c>
     </row>
@@ -19544,7 +19550,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19672,7 +19678,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19688,7 +19694,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19836,7 +19842,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19852,7 +19858,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19980,7 +19986,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -19996,7 +20002,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -20135,7 +20141,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1948</v>
       </c>
     </row>
@@ -20151,7 +20157,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -20290,7 +20296,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -20306,7 +20312,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21406,7 +21412,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21422,7 +21428,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21561,7 +21567,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21577,7 +21583,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21716,7 +21722,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21732,7 +21738,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21967,7 +21973,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21983,7 +21989,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22111,7 +22117,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22127,7 +22133,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22394,7 +22400,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22410,7 +22416,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22630,7 +22636,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22646,7 +22652,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22785,7 +22791,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22801,7 +22807,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -23081,7 +23087,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -23097,7 +23103,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -23366,7 +23372,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -23382,7 +23388,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -23521,7 +23527,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -23537,7 +23543,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -23676,7 +23682,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -23692,7 +23698,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24017,7 +24023,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24033,7 +24039,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24409,7 +24415,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24425,7 +24431,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24553,7 +24559,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24569,7 +24575,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24708,7 +24714,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24724,7 +24730,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -26752,7 +26758,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -26768,7 +26774,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -26907,7 +26913,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1604</v>
       </c>
     </row>
@@ -26923,7 +26929,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27100,7 +27106,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27116,7 +27122,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27274,7 +27280,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27290,7 +27296,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27429,7 +27435,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27445,7 +27451,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27584,7 +27590,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27600,7 +27606,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27739,7 +27745,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27755,7 +27761,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27894,7 +27900,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -27910,7 +27916,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -28142,7 +28148,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -28158,7 +28164,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -28297,7 +28303,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -28313,7 +28319,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -32854,7 +32860,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1621</v>
       </c>
     </row>
@@ -32870,7 +32876,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33130,7 +33136,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33146,7 +33152,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33438,7 +33444,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33454,7 +33460,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33593,7 +33599,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33609,7 +33615,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33748,7 +33754,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33764,7 +33770,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33903,7 +33909,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -33919,7 +33925,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -34067,7 +34073,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -34083,7 +34089,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -34299,7 +34305,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -34315,7 +34321,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -34454,7 +34460,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -34470,7 +34476,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -34884,7 +34890,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -34900,7 +34906,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -38243,7 +38249,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -38259,7 +38265,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -38597,7 +38603,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -38613,7 +38619,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -38795,7 +38801,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -38811,7 +38817,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -38950,7 +38956,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -38966,7 +38972,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -39144,7 +39150,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -39160,7 +39166,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -39299,7 +39305,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1676</v>
       </c>
     </row>
@@ -39315,7 +39321,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -39654,7 +39660,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -39670,7 +39676,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -39848,7 +39854,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -39864,7 +39870,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40003,7 +40009,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1690</v>
       </c>
     </row>
@@ -40019,7 +40025,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40351,7 +40357,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40367,7 +40373,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40506,7 +40512,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40522,7 +40528,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40661,7 +40667,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40677,7 +40683,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40925,7 +40931,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -40941,7 +40947,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41080,7 +41086,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41096,7 +41102,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41235,7 +41241,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41251,7 +41257,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41390,7 +41396,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41406,7 +41412,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41545,7 +41551,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1710</v>
       </c>
     </row>
@@ -41561,7 +41567,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41929,7 +41935,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -41945,7 +41951,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -42610,7 +42616,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1726</v>
       </c>
     </row>
@@ -42626,7 +42632,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -42919,7 +42925,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -42935,7 +42941,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -43074,7 +43080,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -43090,7 +43096,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -43394,7 +43400,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -43410,7 +43416,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -43672,7 +43678,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -43688,7 +43694,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44038,7 +44044,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44054,7 +44060,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44193,7 +44199,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44209,7 +44215,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44348,7 +44354,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44364,7 +44370,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44503,7 +44509,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44519,7 +44525,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44658,7 +44664,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -44674,7 +44680,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -45031,7 +45037,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -45047,7 +45053,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -45175,7 +45181,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1765</v>
       </c>
     </row>
@@ -45191,7 +45197,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -45597,7 +45603,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1779</v>
       </c>
     </row>
@@ -45613,7 +45619,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -46341,7 +46347,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -46357,7 +46363,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -46485,7 +46491,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -46501,7 +46507,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -46996,7 +47002,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47012,7 +47018,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47140,7 +47146,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47156,7 +47162,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47284,7 +47290,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47300,7 +47306,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47797,7 +47803,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47813,7 +47819,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47941,7 +47947,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -47957,7 +47963,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48085,7 +48091,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48101,7 +48107,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48240,7 +48246,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48256,7 +48262,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -48395,7 +48401,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48411,7 +48417,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48550,7 +48556,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48566,7 +48572,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48705,7 +48711,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48721,7 +48727,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -48849,7 +48855,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1513</v>
       </c>
     </row>
@@ -48865,7 +48871,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -49255,7 +49261,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -49271,7 +49277,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -49410,7 +49416,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -49426,7 +49432,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -49565,7 +49571,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1812</v>
       </c>
     </row>
@@ -49581,7 +49587,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -49747,7 +49753,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -49763,7 +49769,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -49891,7 +49897,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1822</v>
       </c>
     </row>
@@ -49907,7 +49913,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50046,7 +50052,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50062,7 +50068,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50201,7 +50207,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50217,7 +50223,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50356,7 +50362,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1829</v>
       </c>
     </row>
@@ -50372,7 +50378,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50559,7 +50565,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50575,7 +50581,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50831,7 +50837,7 @@
       <c r="A5" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -50847,7 +50853,7 @@
       <c r="A7" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
